--- a/table.xlsx
+++ b/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>表名</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>校验空</t>
+  </si>
+  <si>
+    <t>搜索条件</t>
   </si>
   <si>
     <t>媒婆</t>
@@ -188,9 +191,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -211,6 +214,80 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -218,6 +295,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -227,120 +312,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,175 +358,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,21 +557,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,21 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -636,6 +609,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -654,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,139 +669,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,10 +1176,11 @@
     <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,76 +1220,85 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:14">
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <v>11</v>
@@ -1290,13 +1306,13 @@
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -1304,13 +1320,13 @@
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -1318,13 +1334,13 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>200</v>
@@ -1332,13 +1348,13 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1">
         <v>11</v>
@@ -1346,13 +1362,13 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1">
         <v>11</v>
@@ -1360,13 +1376,13 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>11</v>
@@ -1374,13 +1390,13 @@
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="1">
         <v>200</v>
@@ -1388,24 +1404,24 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1413,47 +1429,47 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
@@ -1461,13 +1477,13 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>50</v>
@@ -1475,13 +1491,13 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="1">
         <v>11</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>表名</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>搜索条件</t>
+  </si>
+  <si>
+    <t>显示条件</t>
   </si>
   <si>
     <t>媒婆</t>
@@ -191,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,6 +205,111 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,6 +321,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -220,134 +351,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,25 +361,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,151 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,11 +555,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +590,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,60 +626,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -649,6 +634,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -657,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,142 +672,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1157,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,17 +1170,18 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="21.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,48 +1224,51 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>200</v>
@@ -1272,33 +1276,33 @@
     </row>
     <row r="4" spans="3:14">
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>19</v>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>11</v>
@@ -1306,13 +1310,13 @@
     </row>
     <row r="6" spans="3:6">
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -1320,13 +1324,13 @@
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1">
         <v>15</v>
@@ -1334,13 +1338,13 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>200</v>
@@ -1348,13 +1352,13 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>11</v>
@@ -1362,13 +1366,13 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1">
         <v>11</v>
@@ -1376,13 +1380,13 @@
     </row>
     <row r="11" spans="3:6">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1">
         <v>11</v>
@@ -1390,13 +1394,13 @@
     </row>
     <row r="12" spans="3:6">
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1">
         <v>200</v>
@@ -1404,24 +1408,24 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="3:6">
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1429,47 +1433,47 @@
     </row>
     <row r="15" spans="3:9">
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
@@ -1477,13 +1481,13 @@
     </row>
     <row r="18" spans="3:6">
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1">
         <v>50</v>
@@ -1491,13 +1495,13 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1">
         <v>11</v>
